--- a/Wjsg/StamgegevensJDS.xlsx
+++ b/Wjsg/StamgegevensJDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <dimension ref="B1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
@@ -691,7 +691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
@@ -699,7 +699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
@@ -707,7 +707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
@@ -723,7 +723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
@@ -731,7 +731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
@@ -739,7 +739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
@@ -747,7 +747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
@@ -763,7 +763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
@@ -771,7 +771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
@@ -779,7 +779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
@@ -787,7 +787,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
@@ -795,7 +795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>50</v>
       </c>
